--- a/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>11,47</t>
+          <t>12,73</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,39</t>
+          <t>10,58</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,09</t>
+          <t>18,62</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>84,66%</t>
+          <t>5,87</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>49,89%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>38,84%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>99,67%</t>
+          <t>42,13%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>113,51%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,93; 23,41</t>
+          <t>8,13; 26,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,24; 18,94</t>
+          <t>2,48; 22,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,77; 16,8</t>
+          <t>0,13; 20,24</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,85; 24,39</t>
+          <t>8,99; 27,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>36,3; 145,31</t>
+          <t>-16,12; 18,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>16,67; 103,26</t>
+          <t>31,44; 188,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,21; 84,41</t>
+          <t>6,84; 121,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>42,01; 179,76</t>
+          <t>0,88; 99,98</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>44,24; 237,28</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-36,92; 84,8</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,94</t>
+          <t>21,71</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>15,31</t>
+          <t>8,66</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,84</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11,92</t>
+          <t>7,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>13,78</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>83,72%</t>
+          <t>118,67%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>34,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>69,52%</t>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,55%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,98%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 25,23</t>
+          <t>11,46; 32,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 23,73</t>
+          <t>-3,64; 19,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 17,52</t>
+          <t>-5,85; 15,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 20,71</t>
+          <t>-2,29; 17,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,77; 167,3</t>
+          <t>2,65; 29,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,73; 164,54</t>
+          <t>46,76; 244,7</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 109,12</t>
+          <t>-12,9; 99,07</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,84; 148,58</t>
+          <t>-22,52; 99,27</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; 129,1</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 148,3</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,65</t>
+          <t>9,12</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-8,37</t>
+          <t>-14,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,72</t>
+          <t>22,74</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,79</t>
+          <t>17,44</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>46,2%</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-23,3%</t>
+          <t>72,04%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>-32,36%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>108,08%</t>
+          <t>183,29%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>115,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,05%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 24,83</t>
+          <t>-8,9; 27,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-33,52; 8,04</t>
+          <t>-52,83; 14,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 26,05</t>
+          <t>0,39; 43,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,34; 29,94</t>
+          <t>-3,05; 39,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 203,49</t>
+          <t>-45,9; 30,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-63,19; 40,43</t>
+          <t>-45,44; 762,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,29; 352,44</t>
+          <t>-76,25; 71,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 402,52</t>
+          <t>-8,16; 1286,88</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-14,19; 775,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-71,05; 195,37</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,82</t>
+          <t>18,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>10,79</t>
+          <t>8,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10,17</t>
+          <t>9,68</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,87</t>
+          <t>14,03</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>82,87%</t>
+          <t>8,17</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>47,66%</t>
+          <t>101,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>48,19%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>88,97%</t>
+          <t>42,28%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>80,54%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>27,14%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 20,96</t>
+          <t>11,77; 25,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 16,21</t>
+          <t>-0,82; 15,19</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 15,78</t>
+          <t>2,42; 16,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,04; 20,21</t>
+          <t>7,32; 20,37</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,52; 128,52</t>
+          <t>-5,67; 17,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,3; 84,09</t>
+          <t>53,71; 171,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,83; 89,08</t>
+          <t>-3,08; 66,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,66; 143,21</t>
+          <t>7,68; 83,51</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>35,57; 146,47</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-15,32; 73,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P24_1_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>17,56</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>12,73</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>10,58</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>18,62</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>5,87</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>90,38%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>51,45%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>42,13%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>113,51%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>19,17%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>17.56274860438867</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>12.64245623537411</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.19376864441813</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>18.69515769522641</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>5.056677872921394</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.9037986721537494</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5111413275866475</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.4032954155528453</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.145123067190076</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.1622202405097291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>8,13; 26,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>2,48; 22,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 20,24</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>8,99; 27,67</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,12; 18,09</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>31,44; 188,69</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,84; 121,22</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>0,88; 99,98</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>44,24; 237,28</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-36,92; 84,8</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.132861493330283</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2.51009606740067</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.7074749510109644</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>9.240601835757541</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-16.23599335708299</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.3144200683594693</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.08425863599287485</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.01326542357771249</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.4364356078805315</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3835918190644758</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.82153733422244</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.22636439192754</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.07619055171385</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.53632311756934</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>17.65366626694586</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.886941849430262</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.231606857559191</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.9563693145996001</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.362809488976291</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.8028129212165064</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>21,71</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,66</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,13</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>13,78</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>118,67%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>34,25%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>22,31%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>39,55%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>51,98%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>11,46; 32,43</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 19,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-5,85; 15,95</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 17,27</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>2,65; 29,34</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>46,76; 244,7</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-12,9; 99,07</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-22,52; 99,27</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; 129,1</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 148,3</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>21.71455656420134</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>8.204640138332021</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>4.419266651718356</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>7.516949607616594</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>13.31821348885218</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>1.186732696367081</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.3149845615097759</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1945779176850483</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.3977109354769673</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.5266991867831442</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>9,12</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-14,51</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>22,74</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>72,04%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-32,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>183,29%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>115,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-2,05%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>11.46094250739051</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-4.492134400310677</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-6.395223822142025</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-2.575017831441722</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.851860301138947</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>0.4676025696669113</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1269408484250474</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.2524732245874339</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.09794477537585107</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.06448952518375145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-8,9; 27,68</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-52,83; 14,24</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 43,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,05; 39,62</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-45,9; 30,35</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-45,44; 762,72</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-76,25; 71,76</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-8,16; 1286,88</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-14,19; 775,61</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-71,05; 195,37</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>32.42527333360432</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>19.03943505917089</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.52073214676699</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>17.41909725227342</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>27.0920353960135</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>2.447025633487897</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>1.007929980905904</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.9969596354455857</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.274242315462967</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.465772675767751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,233 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>18,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>8,07</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,68</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,03</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>8,17</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>101,85%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>29,6%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>42,28%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>80,54%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>27,14%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>9.116440930586855</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-14.90417898085636</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>20.48765081909151</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>18.15012187444139</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.1885275864262126</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.7203605900690526</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.3334367439205327</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>1.505414548372427</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.247299835855475</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.004709629872682135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>11,77; 25,54</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 15,19</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>2,42; 16,34</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,32; 20,37</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-5,67; 17,37</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>53,71; 171,86</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-3,08; 66,45</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>7,68; 83,51</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>35,57; 146,47</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-15,32; 73,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-8.895267041461265</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-52.75644522232934</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.490686807403907</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-1.152018152671999</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-46.67353383870982</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.4544080263319115</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.7724985482593819</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2198256430730475</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.1189464830285257</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.701134674937658</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>27.67510304487388</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.13757965435487</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>40.03335279148356</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>39.88919674578809</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>30.67048783299295</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>7.627176482503888</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.6640414309187814</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>10.72313627307545</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>7.882270499043764</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.017416023242295</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>18.54971076472503</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>8.036812319391483</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.011288323230076</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>14.04219612921812</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>7.687653439554709</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>1.018465978145313</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.2940858230631299</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.392278008256266</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8154572554799897</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.2575575471255256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>11.76928112709797</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8682846949760799</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.707461038077792</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.418129018749411</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-6.571100918746303</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.5371409494582557</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.03391226027314885</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.05813258870787878</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.3426115946663209</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.1714636001480322</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>25.5380225293131</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>15.09078411027846</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>15.80823936793687</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>20.48386350930679</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.69457045499119</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.718574983472114</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6474503904984614</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7842070584604511</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.477104217182566</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.7183515591071189</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1113,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
